--- a/pingfen/collect.xlsx
+++ b/pingfen/collect.xlsx
@@ -4381,7 +4381,7 @@
         <v>25</v>
       </c>
       <c r="NN4" s="17">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="NO4" s="17">
         <v>7.5</v>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="NM6" s="17"/>
       <c r="NN6" s="17">
-        <v>1454.37</v>
+        <v>1454.64</v>
       </c>
       <c r="NO6" s="17">
         <v>7.8</v>
@@ -9895,7 +9895,7 @@
         <v>3070</v>
       </c>
       <c r="DX13" s="19">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="DY13" s="19"/>
       <c r="DZ13" s="4" t="s"/>
@@ -15504,7 +15504,7 @@
         <v>253</v>
       </c>
       <c r="DV3" s="37">
-        <v>254.3</v>
+        <v>254.4</v>
       </c>
       <c r="DW3" s="37"/>
       <c r="DX3" s="37"/>

--- a/pingfen/collect.xlsx
+++ b/pingfen/collect.xlsx
@@ -110,8 +110,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="167" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -253,124 +253,124 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="2" fillId="4" fontId="2" numFmtId="166">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="2" fillId="4" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="3" fillId="4" fontId="2" numFmtId="166">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="3" fillId="4" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="4" fontId="2" numFmtId="166">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="4" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="5" fontId="2" numFmtId="166">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="5" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="6" fillId="5" fontId="2" numFmtId="166">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="6" fillId="5" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="7" fillId="5" fontId="2" numFmtId="166">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="7" fillId="5" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="2" numFmtId="167">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="2" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="2" numFmtId="167">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="2" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="6" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="7" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="10" fillId="4" fontId="2" numFmtId="167">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="10" fillId="4" fontId="2" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="167">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="1" numFmtId="167">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="1" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="4" fontId="0" numFmtId="166">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -705,16 +705,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:NY119"/>
+  <dimension ref="A1:OT119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="ND4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="NQ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44140625" customWidth="true"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="2" width="6.33203125" customWidth="true"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="2" width="6.33203125" customWidth="true"/>
     <col collapsed="false" hidden="false" max="80" min="4" style="3" width="6.33203125" customWidth="true"/>
@@ -1092,6 +1092,27 @@
     <col collapsed="false" hidden="false" max="378" min="336" style="4" width="6.33203125" customWidth="true"/>
     <col collapsed="false" hidden="false" max="378" min="336" style="4" width="6.33203125" customWidth="true"/>
     <col collapsed="false" hidden="false" max="378" min="336" style="4" width="6.33203125" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.5"/>
@@ -1486,15 +1507,36 @@
       <c r="NN1" s="4" t="s"/>
       <c r="NO1" s="8"/>
       <c r="NP1" s="8"/>
-      <c r="NQ1" s="1" t="s"/>
-      <c r="NR1" s="1" t="s"/>
-      <c r="NS1" s="1" t="s"/>
-      <c r="NT1" s="1" t="s"/>
-      <c r="NU1" s="1" t="s"/>
-      <c r="NV1" s="1" t="s"/>
-      <c r="NW1" s="1" t="s"/>
-      <c r="NX1" s="1" t="s"/>
-      <c r="NY1" s="1" t="s"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" t="s"/>
+      <c r="OA1" t="s"/>
+      <c r="OB1" t="s"/>
+      <c r="OC1" t="s"/>
+      <c r="OD1" t="s"/>
+      <c r="OE1" t="s"/>
+      <c r="OF1" t="s"/>
+      <c r="OG1" t="s"/>
+      <c r="OH1" t="s"/>
+      <c r="OI1" t="s"/>
+      <c r="OJ1" t="s"/>
+      <c r="OK1" t="s"/>
+      <c r="OL1" t="s"/>
+      <c r="OM1" t="s"/>
+      <c r="ON1" t="s"/>
+      <c r="OO1" t="s"/>
+      <c r="OP1" t="s"/>
+      <c r="OQ1" t="s"/>
+      <c r="OR1" t="s"/>
+      <c r="OS1" t="s"/>
+      <c r="OT1" t="s"/>
     </row>
     <row r="2" ht="22.2" customHeight="true">
       <c r="A2" s="9" t="s">
@@ -2148,6 +2190,41 @@
       </c>
       <c r="NX2" s="12"/>
       <c r="NY2" s="11"/>
+      <c r="NZ2" s="10">
+        <v>43512</v>
+      </c>
+      <c r="OA2" s="12"/>
+      <c r="OB2" s="11"/>
+      <c r="OC2" s="10">
+        <v>43513</v>
+      </c>
+      <c r="OD2" s="12"/>
+      <c r="OE2" s="11"/>
+      <c r="OF2" s="10">
+        <v>43514</v>
+      </c>
+      <c r="OG2" s="12"/>
+      <c r="OH2" s="11"/>
+      <c r="OI2" s="10">
+        <v>43515</v>
+      </c>
+      <c r="OJ2" s="12"/>
+      <c r="OK2" s="11"/>
+      <c r="OL2" s="10">
+        <v>43516</v>
+      </c>
+      <c r="OM2" s="12"/>
+      <c r="ON2" s="11"/>
+      <c r="OO2" s="10">
+        <v>43517</v>
+      </c>
+      <c r="OP2" s="12"/>
+      <c r="OQ2" s="11"/>
+      <c r="OR2" s="10">
+        <v>43518</v>
+      </c>
+      <c r="OS2" s="12"/>
+      <c r="OT2" s="11"/>
     </row>
     <row r="3" ht="22.2" customHeight="true">
       <c r="A3" s="4"/>
@@ -3313,6 +3390,69 @@
         <v>2</v>
       </c>
       <c r="NY3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="NZ3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="OA3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="OB3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="OC3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="OD3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="OE3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="OF3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="OG3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="OH3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="OI3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="OJ3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="OK3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="OL3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="OM3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="ON3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="OO3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="OP3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="OQ3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="OR3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="OS3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="OT3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4458,6 +4598,69 @@
       <c r="NY4" s="18">
         <v>-14264.833333333299</v>
       </c>
+      <c r="NZ4" s="18">
+        <v>-15795.333333333299</v>
+      </c>
+      <c r="OA4" s="18">
+        <v>-17325.833333333299</v>
+      </c>
+      <c r="OB4" s="18">
+        <v>-18856.333333333299</v>
+      </c>
+      <c r="OC4" s="18">
+        <v>-20386.833333333299</v>
+      </c>
+      <c r="OD4" s="18">
+        <v>-21917.333333333299</v>
+      </c>
+      <c r="OE4" s="18">
+        <v>-23447.833333333299</v>
+      </c>
+      <c r="OF4" s="18">
+        <v>3045</v>
+      </c>
+      <c r="OG4" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="OH4" s="18">
+        <v>25</v>
+      </c>
+      <c r="OI4" s="18">
+        <v>-29569.833333333299</v>
+      </c>
+      <c r="OJ4" s="18">
+        <v>-31100.333333333299</v>
+      </c>
+      <c r="OK4" s="18">
+        <v>-32630.833333333299</v>
+      </c>
+      <c r="OL4" s="18">
+        <v>-34161.333333333299</v>
+      </c>
+      <c r="OM4" s="18">
+        <v>-35691.833333333299</v>
+      </c>
+      <c r="ON4" s="18">
+        <v>-37222.333333333299</v>
+      </c>
+      <c r="OO4" s="18">
+        <v>-38752.833333333299</v>
+      </c>
+      <c r="OP4" s="18">
+        <v>-40283.333333333299</v>
+      </c>
+      <c r="OQ4" s="18">
+        <v>-41813.833333333299</v>
+      </c>
+      <c r="OR4" s="18">
+        <v>-43344.333333333299</v>
+      </c>
+      <c r="OS4" s="18">
+        <v>-44874.833333333299</v>
+      </c>
+      <c r="OT4" s="18">
+        <v>-46405.333333333299</v>
+      </c>
     </row>
     <row r="5" ht="22.2" customHeight="true">
       <c r="A5" s="16" t="s">
@@ -5557,6 +5760,69 @@
       <c r="NY5" s="18">
         <v>-130525.46666666699</v>
       </c>
+      <c r="NZ5" s="18">
+        <v>-144512.46666666699</v>
+      </c>
+      <c r="OA5" s="18">
+        <v>-158499.46666666699</v>
+      </c>
+      <c r="OB5" s="18">
+        <v>-172486.46666666699</v>
+      </c>
+      <c r="OC5" s="18">
+        <v>-186473.46666666699</v>
+      </c>
+      <c r="OD5" s="18">
+        <v>-200460.46666666699</v>
+      </c>
+      <c r="OE5" s="18">
+        <v>-214447.46666666699</v>
+      </c>
+      <c r="OF5" s="18">
+        <v>30000</v>
+      </c>
+      <c r="OG5" s="18">
+        <v>7.6</v>
+      </c>
+      <c r="OH5" s="18">
+        <v>30</v>
+      </c>
+      <c r="OI5" s="18">
+        <v>-270395.46666666702</v>
+      </c>
+      <c r="OJ5" s="18">
+        <v>-284382.46666666702</v>
+      </c>
+      <c r="OK5" s="18">
+        <v>-298369.46666666702</v>
+      </c>
+      <c r="OL5" s="18">
+        <v>-312356.46666666702</v>
+      </c>
+      <c r="OM5" s="18">
+        <v>-326343.46666666702</v>
+      </c>
+      <c r="ON5" s="18">
+        <v>-340330.46666666702</v>
+      </c>
+      <c r="OO5" s="18">
+        <v>-354317.46666666702</v>
+      </c>
+      <c r="OP5" s="18">
+        <v>-368304.46666666702</v>
+      </c>
+      <c r="OQ5" s="18">
+        <v>-382291.46666666702</v>
+      </c>
+      <c r="OR5" s="18">
+        <v>-396278.46666666702</v>
+      </c>
+      <c r="OS5" s="18">
+        <v>-410265.46666666702</v>
+      </c>
+      <c r="OT5" s="18">
+        <v>-424252.46666666702</v>
+      </c>
     </row>
     <row r="6" ht="22.2" customHeight="true">
       <c r="A6" s="16" t="s">
@@ -6611,7 +6877,7 @@
       </c>
       <c r="NS6" s="18"/>
       <c r="NT6" s="18">
-        <v>1488.00</v>
+        <v>1488</v>
       </c>
       <c r="NU6" s="18">
         <v>7.8</v>
@@ -6624,6 +6890,55 @@
         <v>-7870.2060000000001</v>
       </c>
       <c r="NY6" s="18"/>
+      <c r="NZ6" s="18">
+        <v>-8891.4290000000001</v>
+      </c>
+      <c r="OA6" s="18">
+        <v>-9912.652</v>
+      </c>
+      <c r="OB6" s="18"/>
+      <c r="OC6" s="18">
+        <v>-10525.3858</v>
+      </c>
+      <c r="OD6" s="18">
+        <v>-11240.241900000001</v>
+      </c>
+      <c r="OE6" s="18"/>
+      <c r="OF6" s="18">
+        <v>1559.84</v>
+      </c>
+      <c r="OG6" s="18">
+        <v>7.8</v>
+      </c>
+      <c r="OH6" s="18"/>
+      <c r="OI6" s="18">
+        <v>-13897.641750000001</v>
+      </c>
+      <c r="OJ6" s="18">
+        <v>-14519.25575</v>
+      </c>
+      <c r="OK6" s="18"/>
+      <c r="OL6" s="18">
+        <v>-15762.483749999999</v>
+      </c>
+      <c r="OM6" s="18">
+        <v>-16384.097750000001</v>
+      </c>
+      <c r="ON6" s="18"/>
+      <c r="OO6" s="18">
+        <v>-17627.32575</v>
+      </c>
+      <c r="OP6" s="18">
+        <v>-18248.939750000001</v>
+      </c>
+      <c r="OQ6" s="18"/>
+      <c r="OR6" s="18">
+        <v>-19492.167750000001</v>
+      </c>
+      <c r="OS6" s="18">
+        <v>-20113.781749999998</v>
+      </c>
+      <c r="OT6" s="18"/>
     </row>
     <row r="7" ht="22.2" customHeight="true">
       <c r="A7" s="16" t="s">
@@ -7774,6 +8089,69 @@
       </c>
       <c r="NY7" s="18">
         <v>-17474.973333333299</v>
+      </c>
+      <c r="NZ7" s="18">
+        <v>-19347.863333333298</v>
+      </c>
+      <c r="OA7" s="18">
+        <v>-21220.753333333301</v>
+      </c>
+      <c r="OB7" s="18">
+        <v>-23093.643333333301</v>
+      </c>
+      <c r="OC7" s="18">
+        <v>-24966.5333333333</v>
+      </c>
+      <c r="OD7" s="18">
+        <v>-26839.4233333333</v>
+      </c>
+      <c r="OE7" s="18">
+        <v>-28712.313333333299</v>
+      </c>
+      <c r="OF7" s="18">
+        <v>3987.24</v>
+      </c>
+      <c r="OG7" s="18">
+        <v>8</v>
+      </c>
+      <c r="OH7" s="18">
+        <v>9</v>
+      </c>
+      <c r="OI7" s="18">
+        <v>-36203.8733333333</v>
+      </c>
+      <c r="OJ7" s="18">
+        <v>-38076.7633333333</v>
+      </c>
+      <c r="OK7" s="18">
+        <v>-39949.653333333299</v>
+      </c>
+      <c r="OL7" s="18">
+        <v>-41822.543333333299</v>
+      </c>
+      <c r="OM7" s="18">
+        <v>-43695.433333333298</v>
+      </c>
+      <c r="ON7" s="18">
+        <v>-45568.323333333297</v>
+      </c>
+      <c r="OO7" s="18">
+        <v>-47441.213333333297</v>
+      </c>
+      <c r="OP7" s="18">
+        <v>-49314.103333333303</v>
+      </c>
+      <c r="OQ7" s="18">
+        <v>-51186.993333333303</v>
+      </c>
+      <c r="OR7" s="18">
+        <v>-53059.883333333302</v>
+      </c>
+      <c r="OS7" s="18">
+        <v>-54932.773333333302</v>
+      </c>
+      <c r="OT7" s="18">
+        <v>-56805.663333333301</v>
       </c>
     </row>
     <row r="8" ht="22.2" customHeight="true">
@@ -8554,6 +8932,27 @@
       <c r="NW8" s="18"/>
       <c r="NX8" s="18"/>
       <c r="NY8" s="18"/>
+      <c r="NZ8" s="18"/>
+      <c r="OA8" s="18"/>
+      <c r="OB8" s="18"/>
+      <c r="OC8" s="18"/>
+      <c r="OD8" s="18"/>
+      <c r="OE8" s="18"/>
+      <c r="OF8" s="18"/>
+      <c r="OG8" s="18"/>
+      <c r="OH8" s="18"/>
+      <c r="OI8" s="18"/>
+      <c r="OJ8" s="18"/>
+      <c r="OK8" s="18"/>
+      <c r="OL8" s="18"/>
+      <c r="OM8" s="18"/>
+      <c r="ON8" s="18"/>
+      <c r="OO8" s="18"/>
+      <c r="OP8" s="18"/>
+      <c r="OQ8" s="18"/>
+      <c r="OR8" s="18"/>
+      <c r="OS8" s="18"/>
+      <c r="OT8" s="18"/>
     </row>
     <row r="9" ht="22.2" customHeight="true">
       <c r="A9" s="16" t="s">
@@ -9037,6 +9436,27 @@
       <c r="NW9" s="18"/>
       <c r="NX9" s="18"/>
       <c r="NY9" s="18"/>
+      <c r="NZ9" s="18"/>
+      <c r="OA9" s="18"/>
+      <c r="OB9" s="18"/>
+      <c r="OC9" s="18"/>
+      <c r="OD9" s="18"/>
+      <c r="OE9" s="18"/>
+      <c r="OF9" s="18"/>
+      <c r="OG9" s="18"/>
+      <c r="OH9" s="18"/>
+      <c r="OI9" s="18"/>
+      <c r="OJ9" s="18"/>
+      <c r="OK9" s="18"/>
+      <c r="OL9" s="18"/>
+      <c r="OM9" s="18"/>
+      <c r="ON9" s="18"/>
+      <c r="OO9" s="18"/>
+      <c r="OP9" s="18"/>
+      <c r="OQ9" s="18"/>
+      <c r="OR9" s="18"/>
+      <c r="OS9" s="18"/>
+      <c r="OT9" s="18"/>
     </row>
     <row r="10"/>
     <row r="11"/>
@@ -9677,15 +10097,36 @@
       <c r="NN12" s="4" t="s"/>
       <c r="NO12" s="8"/>
       <c r="NP12" s="8"/>
-      <c r="NQ12" s="1" t="s"/>
-      <c r="NR12" s="1" t="s"/>
-      <c r="NS12" s="1" t="s"/>
-      <c r="NT12" s="1" t="s"/>
-      <c r="NU12" s="1" t="s"/>
-      <c r="NV12" s="1" t="s"/>
-      <c r="NW12" s="1" t="s"/>
-      <c r="NX12" s="1" t="s"/>
-      <c r="NY12" s="1" t="s"/>
+      <c r="NQ12" s="1"/>
+      <c r="NR12" s="1"/>
+      <c r="NS12" s="1"/>
+      <c r="NT12" s="1"/>
+      <c r="NU12" s="1"/>
+      <c r="NV12" s="1"/>
+      <c r="NW12" s="1"/>
+      <c r="NX12" s="1"/>
+      <c r="NY12" s="1"/>
+      <c r="NZ12" t="s"/>
+      <c r="OA12" t="s"/>
+      <c r="OB12" t="s"/>
+      <c r="OC12" t="s"/>
+      <c r="OD12" t="s"/>
+      <c r="OE12" t="s"/>
+      <c r="OF12" t="s"/>
+      <c r="OG12" t="s"/>
+      <c r="OH12" t="s"/>
+      <c r="OI12" t="s"/>
+      <c r="OJ12" t="s"/>
+      <c r="OK12" t="s"/>
+      <c r="OL12" t="s"/>
+      <c r="OM12" t="s"/>
+      <c r="ON12" t="s"/>
+      <c r="OO12" t="s"/>
+      <c r="OP12" t="s"/>
+      <c r="OQ12" t="s"/>
+      <c r="OR12" t="s"/>
+      <c r="OS12" t="s"/>
+      <c r="OT12" t="s"/>
     </row>
     <row r="13" ht="22.2" customHeight="true">
       <c r="A13" s="26" t="s">
@@ -10322,15 +10763,36 @@
       <c r="NN13" s="4" t="s"/>
       <c r="NO13" s="8"/>
       <c r="NP13" s="8"/>
-      <c r="NQ13" s="1" t="s"/>
-      <c r="NR13" s="1" t="s"/>
-      <c r="NS13" s="1" t="s"/>
-      <c r="NT13" s="1" t="s"/>
-      <c r="NU13" s="1" t="s"/>
-      <c r="NV13" s="1" t="s"/>
-      <c r="NW13" s="1" t="s"/>
-      <c r="NX13" s="1" t="s"/>
-      <c r="NY13" s="1" t="s"/>
+      <c r="NQ13" s="1"/>
+      <c r="NR13" s="1"/>
+      <c r="NS13" s="1"/>
+      <c r="NT13" s="1"/>
+      <c r="NU13" s="1"/>
+      <c r="NV13" s="1"/>
+      <c r="NW13" s="1"/>
+      <c r="NX13" s="1"/>
+      <c r="NY13" s="1"/>
+      <c r="NZ13" t="s"/>
+      <c r="OA13" t="s"/>
+      <c r="OB13" t="s"/>
+      <c r="OC13" t="s"/>
+      <c r="OD13" t="s"/>
+      <c r="OE13" t="s"/>
+      <c r="OF13" t="s"/>
+      <c r="OG13" t="s"/>
+      <c r="OH13" t="s"/>
+      <c r="OI13" t="s"/>
+      <c r="OJ13" t="s"/>
+      <c r="OK13" t="s"/>
+      <c r="OL13" t="s"/>
+      <c r="OM13" t="s"/>
+      <c r="ON13" t="s"/>
+      <c r="OO13" t="s"/>
+      <c r="OP13" t="s"/>
+      <c r="OQ13" t="s"/>
+      <c r="OR13" t="s"/>
+      <c r="OS13" t="s"/>
+      <c r="OT13" t="s"/>
     </row>
     <row r="14"/>
     <row r="15"/>
@@ -14511,7 +14973,7 @@
       <c r="DU119" s="4" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
+  <mergeCells count="137">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -14642,6 +15104,13 @@
     <mergeCell ref="NQ2:NS2"/>
     <mergeCell ref="NT2:NV2"/>
     <mergeCell ref="NW2:NY2"/>
+    <mergeCell ref="NZ2:OB2"/>
+    <mergeCell ref="OC2:OE2"/>
+    <mergeCell ref="OF2:OH2"/>
+    <mergeCell ref="OI2:OK2"/>
+    <mergeCell ref="OL2:ON2"/>
+    <mergeCell ref="OO2:OQ2"/>
+    <mergeCell ref="OR2:OT2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -14667,7 +15136,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44140625" customWidth="true"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="30" width="9.44140625" customWidth="true"/>
     <col collapsed="false" hidden="false" max="21" min="3" style="30" width="8.77734375" customWidth="true"/>
     <col collapsed="false" hidden="false" max="21" min="3" style="30" width="8.77734375" customWidth="true"/>
@@ -15692,10 +16161,10 @@
         <v>257.89999999999998</v>
       </c>
       <c r="DW3" s="8">
-        <v>258.9</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="DX3" s="8">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="DY3" s="8"/>
     </row>
@@ -16071,7 +16540,7 @@
         <v>76.7</v>
       </c>
       <c r="DW4" s="8">
-        <v>76.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="DX4" s="8">
         <v>77.7</v>
@@ -18344,7 +18813,7 @@
         <v>35.4</v>
       </c>
       <c r="DX10" s="8">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="DY10" s="8"/>
     </row>
@@ -18712,7 +19181,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="DW11" s="8">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="DX11" s="8">
         <v>32.6</v>
@@ -19086,7 +19555,7 @@
         <v>34.4</v>
       </c>
       <c r="DX12" s="8">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="DY12" s="8"/>
     </row>
@@ -20932,10 +21401,9 @@
       <c r="DW17" s="8">
         <v>23.1</v>
       </c>
-      <c r="DX17">
+      <c r="DX17" s="1">
         <v>23.3</v>
       </c>
-      <c r="DY17" t="s"/>
     </row>
     <row r="18" ht="22.2" customHeight="true">
       <c r="A18" s="40">
@@ -21299,10 +21767,9 @@
       <c r="DW18" s="8">
         <v>23.9</v>
       </c>
-      <c r="DX18">
+      <c r="DX18" s="1">
         <v>24.1</v>
       </c>
-      <c r="DY18" t="s"/>
     </row>
     <row r="19" ht="22.2" customHeight="true">
       <c r="A19" s="40">
@@ -21664,10 +22131,9 @@
       <c r="DW19" s="8">
         <v>21.5</v>
       </c>
-      <c r="DX19">
+      <c r="DX19" s="1">
         <v>21.7</v>
       </c>
-      <c r="DY19" t="s"/>
     </row>
     <row r="20" ht="22.2" customHeight="true">
       <c r="A20" s="40">
@@ -22029,10 +22495,9 @@
       <c r="DW20" s="8">
         <v>21.8</v>
       </c>
-      <c r="DX20">
+      <c r="DX20" s="1">
         <v>22</v>
       </c>
-      <c r="DY20" t="s"/>
     </row>
     <row r="21" ht="22.2" customHeight="true">
       <c r="A21" s="40">
@@ -22390,12 +22855,11 @@
         <v>19.899999999999999</v>
       </c>
       <c r="DW21" s="8">
-        <v>19.9</v>
-      </c>
-      <c r="DX21">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="DX21" s="1">
         <v>20.2</v>
       </c>
-      <c r="DY21" t="s"/>
     </row>
     <row r="22" ht="22.2" customHeight="true">
       <c r="A22" s="40">
@@ -22755,10 +23219,9 @@
       <c r="DW22" s="8">
         <v>23.6</v>
       </c>
-      <c r="DX22">
+      <c r="DX22" s="1">
         <v>23.8</v>
       </c>
-      <c r="DY22" t="s"/>
     </row>
     <row r="23" ht="22.2" customHeight="true">
       <c r="A23" s="40">
@@ -23108,12 +23571,11 @@
         <v>18.399999999999999</v>
       </c>
       <c r="DW23" s="8">
-        <v>18.4</v>
-      </c>
-      <c r="DX23">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="DX23" s="1">
         <v>18.7</v>
       </c>
-      <c r="DY23" t="s"/>
     </row>
     <row r="24" ht="22.2" customHeight="true">
       <c r="A24" s="40">
@@ -23465,10 +23927,9 @@
       <c r="DW24" s="8">
         <v>18.2</v>
       </c>
-      <c r="DX24">
-        <v>18.4</v>
-      </c>
-      <c r="DY24" t="s"/>
+      <c r="DX24" s="1">
+        <v>18.399999999999999</v>
+      </c>
     </row>
     <row r="25" ht="22.2" customHeight="true">
       <c r="A25" s="40">
@@ -23818,10 +24279,9 @@
       <c r="DW25" s="8">
         <v>16.7</v>
       </c>
-      <c r="DX25">
-        <v>16.9</v>
-      </c>
-      <c r="DY25" t="s"/>
+      <c r="DX25" s="1">
+        <v>16.899999999999999</v>
+      </c>
     </row>
     <row r="26" ht="22.2" customHeight="true">
       <c r="A26" s="40">
@@ -24171,10 +24631,9 @@
       <c r="DW26" s="8">
         <v>16.8</v>
       </c>
-      <c r="DX26">
+      <c r="DX26" s="1">
         <v>17</v>
       </c>
-      <c r="DY26" t="s"/>
     </row>
     <row r="27" ht="22.2" customHeight="true">
       <c r="A27" s="40">
@@ -24522,10 +24981,9 @@
       <c r="DW27" s="8">
         <v>15.8</v>
       </c>
-      <c r="DX27">
+      <c r="DX27" s="1">
         <v>16</v>
       </c>
-      <c r="DY27" t="s"/>
     </row>
     <row r="28" ht="22.2" customHeight="true">
       <c r="A28" s="40">
@@ -24873,10 +25331,9 @@
       <c r="DW28" s="8">
         <v>16</v>
       </c>
-      <c r="DX28">
+      <c r="DX28" s="1">
         <v>16.2</v>
       </c>
-      <c r="DY28" t="s"/>
     </row>
     <row r="29" ht="22.2" customHeight="true">
       <c r="A29" s="40">
@@ -25224,10 +25681,9 @@
       <c r="DW29" s="8">
         <v>14.5</v>
       </c>
-      <c r="DX29">
+      <c r="DX29" s="1">
         <v>14.7</v>
       </c>
-      <c r="DY29" t="s"/>
     </row>
     <row r="30" ht="22.2" customHeight="true">
       <c r="A30" s="40">
@@ -25575,10 +26031,9 @@
       <c r="DW30" s="8">
         <v>14.9</v>
       </c>
-      <c r="DX30">
+      <c r="DX30" s="1">
         <v>15.1</v>
       </c>
-      <c r="DY30" t="s"/>
     </row>
     <row r="31" ht="22.2" customHeight="true">
       <c r="A31" s="40">
@@ -25924,10 +26379,9 @@
       <c r="DW31" s="8">
         <v>13.3</v>
       </c>
-      <c r="DX31">
+      <c r="DX31" s="1">
         <v>13.5</v>
       </c>
-      <c r="DY31" t="s"/>
     </row>
     <row r="32" ht="22.2" customHeight="true">
       <c r="A32" s="40">
@@ -26269,12 +26723,11 @@
         <v>16.399999999999999</v>
       </c>
       <c r="DW32" s="8">
-        <v>16.4</v>
-      </c>
-      <c r="DX32">
-        <v>16.6</v>
-      </c>
-      <c r="DY32" t="s"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="DX32" s="1">
+        <v>16.600000000000001</v>
+      </c>
     </row>
     <row r="33" ht="22.2" customHeight="true">
       <c r="A33" s="40">
@@ -26612,10 +27065,9 @@
       <c r="DW33" s="8">
         <v>12.9</v>
       </c>
-      <c r="DX33">
+      <c r="DX33" s="1">
         <v>13.1</v>
       </c>
-      <c r="DY33" t="s"/>
     </row>
     <row r="34" ht="22.2" customHeight="true">
       <c r="A34" s="40">
@@ -26953,10 +27405,9 @@
       <c r="DW34" s="8">
         <v>13.6</v>
       </c>
-      <c r="DX34">
+      <c r="DX34" s="1">
         <v>13.8</v>
       </c>
-      <c r="DY34" t="s"/>
     </row>
     <row r="35" ht="22.2" customHeight="true">
       <c r="A35" s="40">
@@ -27292,10 +27743,9 @@
       <c r="DW35" s="8">
         <v>11.8</v>
       </c>
-      <c r="DX35">
+      <c r="DX35" s="1">
         <v>12</v>
       </c>
-      <c r="DY35" t="s"/>
     </row>
     <row r="36" ht="22.2" customHeight="true">
       <c r="A36" s="40">
@@ -27631,10 +28081,9 @@
       <c r="DW36" s="8">
         <v>11.7</v>
       </c>
-      <c r="DX36">
+      <c r="DX36" s="1">
         <v>11.8</v>
       </c>
-      <c r="DY36" t="s"/>
     </row>
     <row r="37" ht="22.2" customHeight="true">
       <c r="A37" s="40">
@@ -27968,10 +28417,9 @@
       <c r="DW37" s="8">
         <v>11.4</v>
       </c>
-      <c r="DX37">
+      <c r="DX37" s="1">
         <v>11.6</v>
       </c>
-      <c r="DY37" t="s"/>
     </row>
     <row r="38" ht="22.2" customHeight="true">
       <c r="A38" s="40">
@@ -28305,10 +28753,9 @@
       <c r="DW38" s="8">
         <v>13.2</v>
       </c>
-      <c r="DX38">
+      <c r="DX38" s="1">
         <v>13.4</v>
       </c>
-      <c r="DY38" t="s"/>
     </row>
     <row r="39" ht="22.2" customHeight="true">
       <c r="A39" s="40">
@@ -28640,10 +29087,9 @@
       <c r="DW39" s="8">
         <v>11.5</v>
       </c>
-      <c r="DX39">
+      <c r="DX39" s="1">
         <v>11.6</v>
       </c>
-      <c r="DY39" t="s"/>
     </row>
     <row r="40" ht="22.2" customHeight="true">
       <c r="A40" s="40">
@@ -28975,10 +29421,9 @@
       <c r="DW40" s="8">
         <v>11.1</v>
       </c>
-      <c r="DX40">
+      <c r="DX40" s="1">
         <v>11.3</v>
       </c>
-      <c r="DY40" t="s"/>
     </row>
     <row r="41" ht="22.2" customHeight="true">
       <c r="A41" s="40">
@@ -29308,10 +29753,9 @@
       <c r="DW41" s="8">
         <v>11</v>
       </c>
-      <c r="DX41">
+      <c r="DX41" s="1">
         <v>11.1</v>
       </c>
-      <c r="DY41" t="s"/>
     </row>
     <row r="42" ht="22.2" customHeight="true">
       <c r="A42" s="40">
@@ -29641,10 +30085,9 @@
       <c r="DW42" s="8">
         <v>13.6</v>
       </c>
-      <c r="DX42">
+      <c r="DX42" s="1">
         <v>13.8</v>
       </c>
-      <c r="DY42" t="s"/>
     </row>
     <row r="43" ht="22.2" customHeight="true">
       <c r="A43" s="40">
@@ -29970,10 +30413,9 @@
       <c r="DW43" s="8">
         <v>11</v>
       </c>
-      <c r="DX43">
+      <c r="DX43" s="1">
         <v>11.2</v>
       </c>
-      <c r="DY43" t="s"/>
     </row>
     <row r="44" ht="22.2" customHeight="true">
       <c r="A44" s="40">
@@ -30297,10 +30739,9 @@
       <c r="DW44" s="8">
         <v>11.4</v>
       </c>
-      <c r="DX44">
+      <c r="DX44" s="1">
         <v>11.5</v>
       </c>
-      <c r="DY44" t="s"/>
     </row>
     <row r="45" ht="22.2" customHeight="true">
       <c r="A45" s="40">
@@ -30622,10 +31063,9 @@
       <c r="DW45" s="8">
         <v>10.5</v>
       </c>
-      <c r="DX45">
+      <c r="DX45" s="1">
         <v>10.7</v>
       </c>
-      <c r="DY45" t="s"/>
     </row>
     <row r="46" ht="22.2" customHeight="true">
       <c r="A46" s="40">
@@ -30947,10 +31387,9 @@
       <c r="DW46" s="8">
         <v>12</v>
       </c>
-      <c r="DX46">
+      <c r="DX46" s="1">
         <v>12.1</v>
       </c>
-      <c r="DY46" t="s"/>
     </row>
     <row r="47" ht="22.2" customHeight="true">
       <c r="A47" s="40">
@@ -31266,12 +31705,11 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="DW47" s="8">
-        <v>9.8</v>
-      </c>
-      <c r="DX47">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="DX47" s="1">
         <v>9.9</v>
       </c>
-      <c r="DY47" t="s"/>
     </row>
     <row r="48" ht="22.2" customHeight="true">
       <c r="A48" s="40">
@@ -31587,12 +32025,11 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="DW48" s="8">
-        <v>9.7</v>
-      </c>
-      <c r="DX48">
-        <v>9.8</v>
-      </c>
-      <c r="DY48" t="s"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="DX48" s="1">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="49" ht="22.2" customHeight="true">
       <c r="A49" s="40">
@@ -31910,10 +32347,9 @@
       <c r="DW49" s="8">
         <v>9.5</v>
       </c>
-      <c r="DX49">
+      <c r="DX49" s="1">
         <v>9.6</v>
       </c>
-      <c r="DY49" t="s"/>
     </row>
     <row r="50" ht="22.2" customHeight="true">
       <c r="A50" s="40">
@@ -32231,10 +32667,9 @@
       <c r="DW50" s="8">
         <v>10</v>
       </c>
-      <c r="DX50">
+      <c r="DX50" s="1">
         <v>10.1</v>
       </c>
-      <c r="DY50" t="s"/>
     </row>
     <row r="51" ht="22.2" customHeight="true">
       <c r="A51" s="40">
@@ -32548,12 +32983,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="DW51" s="8">
-        <v>9.3</v>
-      </c>
-      <c r="DX51">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="DX51" s="1">
         <v>9.4</v>
       </c>
-      <c r="DY51" t="s"/>
     </row>
     <row r="52" ht="22.2" customHeight="true">
       <c r="A52" s="40">
@@ -32869,10 +33303,9 @@
       <c r="DW52" s="8">
         <v>12.1</v>
       </c>
-      <c r="DX52">
+      <c r="DX52" s="1">
         <v>12.3</v>
       </c>
-      <c r="DY52" t="s"/>
     </row>
     <row r="53" ht="22.2" customHeight="true">
       <c r="A53" s="40">
@@ -33182,10 +33615,9 @@
       <c r="DW53" s="8">
         <v>9.5</v>
       </c>
-      <c r="DX53">
+      <c r="DX53" s="1">
         <v>9.6</v>
       </c>
-      <c r="DY53" t="s"/>
     </row>
     <row r="54" ht="22.2" customHeight="true">
       <c r="A54" s="40">
@@ -33495,10 +33927,9 @@
       <c r="DW54" s="8">
         <v>20.3</v>
       </c>
-      <c r="DX54">
+      <c r="DX54" s="1">
         <v>20.6</v>
       </c>
-      <c r="DY54" t="s"/>
     </row>
     <row r="55" ht="22.2" customHeight="true">
       <c r="A55" s="40"/>
@@ -33626,8 +34057,9 @@
       <c r="DS55" s="8"/>
       <c r="DT55" s="8"/>
       <c r="DU55" s="8"/>
-      <c r="DV55" s="1" t="s"/>
-      <c r="DW55" s="1" t="s"/>
+      <c r="DV55" s="1"/>
+      <c r="DW55" s="1"/>
+      <c r="DX55" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -33655,9 +34087,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44140625" customWidth="true"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="30" width="9.44140625" customWidth="true"/>
     <col collapsed="false" hidden="false" max="21" min="3" style="30" width="8.77734375" customWidth="true"/>
     <col collapsed="false" hidden="false" max="21" min="3" style="30" width="8.77734375" customWidth="true"/>
@@ -52123,7 +52555,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44140625" customWidth="true"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="30" width="9.44140625" customWidth="true"/>
     <col collapsed="false" hidden="false" max="21" min="3" style="30" width="8.77734375" customWidth="true"/>
     <col collapsed="false" hidden="false" max="21" min="3" style="30" width="8.77734375" customWidth="true"/>
